--- a/Data/joined_Sonntag_coord_nn.xlsx
+++ b/Data/joined_Sonntag_coord_nn.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1C46C4-317D-4A4F-812C-C5275DDC4453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2E05F-311E-461F-9AB0-915878F93862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="307">
   <si>
     <t>Index</t>
   </si>
@@ -679,24 +692,9 @@
     <t>01., Hofburg B Schweizertrakt</t>
   </si>
   <si>
-    <t>Longitude_SH_autom</t>
-  </si>
-  <si>
-    <t>Latitude_SH_autom</t>
-  </si>
-  <si>
-    <t>Longitude_SH_manuell</t>
-  </si>
-  <si>
     <t>07., Museumstraße 7</t>
   </si>
   <si>
-    <t>Longitude_GeoHack</t>
-  </si>
-  <si>
-    <t>Latitude_GeoHack</t>
-  </si>
-  <si>
     <t>Gebäude des Geographischen (Militär=)Jnstituts</t>
   </si>
   <si>
@@ -706,9 +704,6 @@
     <t>Gumpendorferstraße 6-12</t>
   </si>
   <si>
-    <t>Salztorbücke</t>
-  </si>
-  <si>
     <t>04., Karlsplatz 13</t>
   </si>
   <si>
@@ -727,15 +722,9 @@
     <t>Augustinergang</t>
   </si>
   <si>
-    <t>Josefsplatz 1</t>
-  </si>
-  <si>
     <t>Schmetterlingshaus</t>
   </si>
   <si>
-    <t>01., Albertinaplatz</t>
-  </si>
-  <si>
     <t>01., beim Albertinaplatz in der Wand? der Augustinerbastei</t>
   </si>
   <si>
@@ -751,9 +740,6 @@
     <t xml:space="preserve">04., Wiedner Hauptstraße 8-10 </t>
   </si>
   <si>
-    <t>*der Raaber Linie, Vor der Favoriten=Linie.</t>
-  </si>
-  <si>
     <t>03., Rennweg</t>
   </si>
   <si>
@@ -767,9 +753,6 @@
   </si>
   <si>
     <t>Stuben(tor)brücke</t>
-  </si>
-  <si>
-    <t>03., Am Heumarkt 1</t>
   </si>
   <si>
     <t>Zedlitzgasse 4</t>
@@ -794,16 +777,10 @@
     <t>01., Rothenturmstraße 26</t>
   </si>
   <si>
-    <t>s. Salztorbrücke</t>
-  </si>
-  <si>
     <t>01., Morzinplatz 3</t>
   </si>
   <si>
     <t>01., Salzgries 10-16</t>
-  </si>
-  <si>
-    <t>01., Schottenring 7</t>
   </si>
   <si>
     <t>01., Dr.-Ignaz-Seipel-Platz</t>
@@ -829,6 +806,156 @@
   </si>
   <si>
     <t>01., Ballhausplatz 1</t>
+  </si>
+  <si>
+    <t>Sicherheit</t>
+  </si>
+  <si>
+    <t>niedrig</t>
+  </si>
+  <si>
+    <t>sehr niedrig (f)</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>hoch</t>
+  </si>
+  <si>
+    <t>nicht! Salztorbücke</t>
+  </si>
+  <si>
+    <t>Salztorbrücke</t>
+  </si>
+  <si>
+    <t>neues Thore</t>
+  </si>
+  <si>
+    <t>fehlt</t>
+  </si>
+  <si>
+    <t>Gazetteer_Steinhausenplan_V5_auto</t>
+  </si>
+  <si>
+    <t>Gazetteer_Steinhausenplan_V5_manuell</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Palais_Trautson&amp;language=de&amp;params=48.205833333333_N_16.355277777778_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=K.u.k._Milit%C3%A4rgeographisches_Institut&amp;language=de&amp;params=48.210284_N_16.35507_E_dim:70_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Getreidemarktkaserne&amp;language=de&amp;params=48.200763888889_N_16.361305555556_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>Quellen</t>
+  </si>
+  <si>
+    <t>Wikipedia, GeoHack</t>
+  </si>
+  <si>
+    <t>a.k.a. Elisabethbrücke</t>
+  </si>
+  <si>
+    <t>Truppendienst, GeoHack; unter: https://www.truppendienst.com/fileadmin/user_upload/TD_vor_50_Jahren/1991/Militaerische_Einrichtungen_Wiens_im_Wandel_der_Zeit__I_.pdf ,</t>
+  </si>
+  <si>
+    <t>Wien Geschichte Wiki, GeoHack</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Elisabethbr%C3%BCcke_(Wien)&amp;language=de&amp;params=48.200527777778_N_16.368694444444_E_dim:1000_region:AT-9_type:building</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=K.k._Polytechnisches_Institut&amp;language=de&amp;params=48.198888_N_16.369912_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Wiener_Karlskirche&amp;language=de&amp;params=48.198247222222_N_16.371422222222_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Prunksaal_der_%C3%96sterreichischen_Nationalbibliothek&amp;language=de&amp;params=48.206166_N_16.366641_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>Josefsplatz 1, heute: Prunksaal</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Josefsplatz_(Wien)&amp;language=de&amp;params=48.206511_N_16.367182_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Palais_Erzherzog_Carl&amp;language=de&amp;params=48.20375_N_16.373083333333_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Schmetterlinghaus&amp;language=de&amp;params=48.205277777778_N_16.366666666667_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>01., heute: Albertinaplatz</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Albertinaplatz&amp;language=de&amp;params=48.204306_N_16.369026_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Schneeberg_(Rax-Schneeberg-Gruppe)&amp;language=de&amp;params=47.775833333333_N_15.8075_E_dim:5000_region:AT-3_type:mountain(2076)</t>
+  </si>
+  <si>
+    <t>*der Raaber Linie, ehem. Südbahnhof, Vor der Favoriten=Linie.</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Wien_S%C3%BCdbahnhof&amp;language=de&amp;params=48.186576_N_16.3801_E_dim:2000_region:AT-9_type:railwaystation</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Salesianerinnenkirche_(Wien)&amp;language=de&amp;params=48.195833333333_N_16.381666666667_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>03., Am Heumarkt 1; Hauptgebäude der Münze Österreich</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Hauptgeb%C3%A4ude_der_M%C3%BCnze_%C3%96sterreich&amp;language=de&amp;params=48.203598_N_16.382746_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Wiener_Neust%C3%A4dter_Kanal&amp;language=de&amp;params=48.075277777778_N_16.349722222222_E_region:AT-3_type:waterbody</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Invalidenhaus_(Wien)&amp;language=de&amp;params=48.2064_N_16.3865_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>Schwedenbrücke</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Schwedenbr%C3%BCcke&amp;language=de&amp;params=48.211944444444_N_16.378888888889_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=J%C3%A4gerzeile&amp;language=de&amp;params=48.215277777778_N_16.385277777778_E_region:AT-9_type:city</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Salztorbr%C3%BCcke&amp;language=de&amp;params=48.214166666667_N_16.375_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=S%C3%BChnhaus&amp;language=de&amp;params=48.214722222222_N_16.363333333333_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>01., Schottenring 7, Sühnhaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://geohack.toolforge.org/geohack.php?pagename=Rossau_(Wien)&amp;language=de&amp;params=48.221666666667_N_16.363888888889_E_region:AT-9_type:city </t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Lichtental_(Wien)&amp;language=de&amp;params=48.228055555556_N_16.357777777778_E_region:AT-9_type:city</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Palais_Lubomirski&amp;language=de&amp;params=48.211666666667_N_16.361944444444_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Theater_in_der_Josefstadt&amp;language=de&amp;params=48.209583333333_N_16.351111111111_E_dim:400_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Ballhausplatz&amp;language=de&amp;params=48.2081_N_16.3637_E_region:AT-9_type:landmark</t>
+  </si>
+  <si>
+    <t>https://geohack.toolforge.org/geohack.php?pagename=Bellaria&amp;language=de&amp;params=48.208372222222_N_16.364080555556_E_region:AT-9_type:landmark</t>
   </si>
 </sst>
 </file>
@@ -967,15 +1094,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1284,29 +1411,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H183" sqref="H183:H184"/>
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.109375" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,37 +1440,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1357,20 +1471,20 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="3">
         <v>16.365809460000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>48.206874249999998</v>
       </c>
-      <c r="I2" s="3">
-        <v>16.365809460000001</v>
-      </c>
-      <c r="J2" s="3">
-        <v>48.206874249999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1381,7 +1495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1391,20 +1505,20 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4">
         <v>16.363591169999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>48.207306670000001</v>
       </c>
-      <c r="G4">
-        <v>16.363591169999999</v>
-      </c>
-      <c r="H4">
-        <v>48.207306670000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1414,20 +1528,17 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>16.37611472</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>48.207519480000002</v>
       </c>
-      <c r="I5" s="3">
-        <v>16.37611472</v>
-      </c>
-      <c r="J5" s="3">
-        <v>48.207519480000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1438,22 +1549,23 @@
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6">
+        <v>219</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6">
         <v>16.355277999999998</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>48.205832999999998</v>
       </c>
-      <c r="K6">
-        <v>16.355277999999998</v>
-      </c>
-      <c r="L6">
-        <v>48.205832999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1463,20 +1575,17 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>16.36429283</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>48.21043401</v>
       </c>
-      <c r="I7" s="3">
-        <v>16.36429283</v>
-      </c>
-      <c r="J7" s="3">
-        <v>48.21043401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1484,25 +1593,25 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8">
+        <v>221</v>
+      </c>
+      <c r="F8">
         <v>16.356328999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>48.210980999999997</v>
       </c>
-      <c r="K8">
-        <v>16.356328999999999</v>
-      </c>
-      <c r="L8">
-        <v>48.210980999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1513,7 +1622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1526,14 +1635,14 @@
       <c r="D10" t="s">
         <v>163</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>16.3330615633398</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>48.276207520699103</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1546,14 +1655,14 @@
       <c r="D11" t="s">
         <v>164</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>16.336883553860101</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>48.194919391773901</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1563,20 +1672,17 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>16.370375249999999</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>48.210179850000003</v>
       </c>
-      <c r="G12">
-        <v>16.370375249999999</v>
-      </c>
-      <c r="H12">
-        <v>48.210179850000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1587,22 +1693,22 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="5">
+        <v>222</v>
+      </c>
+      <c r="F13" s="5">
         <v>16.361861000000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>48.200944</v>
       </c>
-      <c r="K13" s="5">
-        <v>16.361861000000001</v>
-      </c>
-      <c r="L13" s="5">
-        <v>48.200944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1615,14 +1721,14 @@
       <c r="D14" t="s">
         <v>165</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>16.364151863329699</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>48.201064794712003</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1633,7 +1739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1644,7 +1750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1654,20 +1760,17 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <v>16.365013560000001</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <v>48.199254320000001</v>
       </c>
-      <c r="I17" s="6">
-        <v>16.365013560000001</v>
-      </c>
-      <c r="J17" s="6">
-        <v>48.199254320000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1678,22 +1781,14 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18">
-        <v>16.375</v>
-      </c>
-      <c r="F18" s="7">
-        <v>48.214167000000003</v>
-      </c>
-      <c r="K18">
-        <v>16.375</v>
-      </c>
-      <c r="L18" s="7">
-        <v>48.214167000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="E18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1703,20 +1798,23 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7">
+      <c r="D19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="7">
         <v>16.368694000000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>48.200527999999998</v>
       </c>
-      <c r="K19" s="7">
-        <v>16.368694000000001</v>
-      </c>
-      <c r="L19">
-        <v>48.200527999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>276</v>
+      </c>
+      <c r="I19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1727,22 +1825,22 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="7">
+        <v>223</v>
+      </c>
+      <c r="F20" s="7">
         <v>16.369911999999999</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>48.198887999999997</v>
       </c>
-      <c r="K20" s="7">
-        <v>16.369911999999999</v>
-      </c>
-      <c r="L20">
-        <v>48.198887999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1755,14 +1853,14 @@
       <c r="D21" t="s">
         <v>166</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>16.371866173866</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>48.198245099030899</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1773,22 +1871,22 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="5">
+        <v>224</v>
+      </c>
+      <c r="F22" s="5">
         <v>16.366111</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>48.206389000000001</v>
       </c>
-      <c r="K22" s="5">
-        <v>16.366111</v>
-      </c>
-      <c r="L22" s="5">
-        <v>48.206389000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1799,10 +1897,10 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1813,10 +1911,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1827,16 +1925,16 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="5">
+        <v>225</v>
+      </c>
+      <c r="F25" s="5">
         <v>16.366111</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>48.206389000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1847,10 +1945,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1861,7 +1959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1872,16 +1970,16 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" s="5">
+        <v>224</v>
+      </c>
+      <c r="F28" s="5">
         <v>16.366111</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>48.206389000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1892,22 +1990,22 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
-      </c>
-      <c r="E29" s="5">
+        <v>281</v>
+      </c>
+      <c r="F29" s="5">
         <v>16.366641000000001</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>48.206166000000003</v>
       </c>
-      <c r="K29" s="5">
-        <v>16.366641000000001</v>
-      </c>
-      <c r="L29" s="5">
-        <v>48.206166000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1917,20 +2015,20 @@
       <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="7">
         <v>16.367182</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>48.206510999999999</v>
       </c>
-      <c r="K30" s="7">
-        <v>16.367182</v>
-      </c>
-      <c r="L30">
-        <v>48.206510999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1941,22 +2039,22 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="5">
+        <v>236</v>
+      </c>
+      <c r="F31" s="5">
         <v>16.373083000000001</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>48.203749999999999</v>
       </c>
-      <c r="K31" s="5">
-        <v>16.373083000000001</v>
-      </c>
-      <c r="L31" s="5">
-        <v>48.203749999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1967,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1980,14 +2078,14 @@
       <c r="D33" t="s">
         <v>167</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>16.361755237940699</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>48.207964058470097</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2000,14 +2098,14 @@
       <c r="D34" t="s">
         <v>168</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>16.3659572122668</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>48.204555072124897</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2020,14 +2118,14 @@
       <c r="D35" t="s">
         <v>168</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>16.3659572122668</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>48.204555072124897</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2038,22 +2136,22 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="5">
+        <v>229</v>
+      </c>
+      <c r="F36" s="5">
         <v>16.366667</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>48.205278</v>
       </c>
-      <c r="K36" s="5">
-        <v>16.366667</v>
-      </c>
-      <c r="L36" s="5">
-        <v>48.205278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2063,20 +2161,17 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>16.376387860000001</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>48.209587370000001</v>
       </c>
-      <c r="G37">
-        <v>16.376387860000001</v>
-      </c>
-      <c r="H37">
-        <v>48.209587370000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2087,16 +2182,22 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" s="5">
+        <v>236</v>
+      </c>
+      <c r="F38" s="5">
         <v>16.373083000000001</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>48.203749999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>273</v>
+      </c>
+      <c r="I38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2107,22 +2208,22 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="7">
+        <v>285</v>
+      </c>
+      <c r="F39" s="7">
         <v>16.369026000000002</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>48.204306000000003</v>
       </c>
-      <c r="K39" s="7">
-        <v>16.369026000000002</v>
-      </c>
-      <c r="L39">
-        <v>48.204306000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>273</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2133,11 +2234,11 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2150,14 +2251,14 @@
       <c r="D41" t="s">
         <v>169</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>16.369772672546802</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>48.203887080944597</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2167,20 +2268,17 @@
       <c r="C42" t="s">
         <v>36</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>16.376387860000001</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>48.209587370000001</v>
       </c>
-      <c r="G42">
-        <v>16.376387860000001</v>
-      </c>
-      <c r="H42">
-        <v>48.209587370000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2191,22 +2289,22 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43">
+        <v>231</v>
+      </c>
+      <c r="F43">
         <v>16.370534457671599</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>48.203303433951199</v>
       </c>
-      <c r="M43">
+      <c r="J43">
         <v>16.370534457671599</v>
       </c>
-      <c r="N43">
+      <c r="K43">
         <v>48.203303433951199</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2219,14 +2317,14 @@
       <c r="D44" t="s">
         <v>170</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>16.371565071471501</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>48.206892902478103</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2239,14 +2337,14 @@
       <c r="D45" t="s">
         <v>171</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>16.369816870678601</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>48.191508296687097</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2257,7 +2355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2268,22 +2366,22 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
-      </c>
-      <c r="E47">
+        <v>234</v>
+      </c>
+      <c r="F47">
         <v>16.3673894389274</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>48.198865889213501</v>
       </c>
-      <c r="M47">
+      <c r="J47">
         <v>16.3673894389274</v>
       </c>
-      <c r="N47">
+      <c r="K47">
         <v>48.198865889213501</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2294,16 +2392,16 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="7">
+        <v>223</v>
+      </c>
+      <c r="F48" s="7">
         <v>16.369911999999999</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>48.198887999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2316,14 +2414,14 @@
       <c r="D49" t="s">
         <v>166</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>16.371866173866</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>48.198245099030899</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2334,16 +2432,16 @@
         <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
-      </c>
-      <c r="E50">
+        <v>234</v>
+      </c>
+      <c r="F50">
         <v>16.3673894389274</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>48.198865889213501</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2356,14 +2454,14 @@
       <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>16.234337092498301</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>48.2244265511275</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2373,20 +2471,20 @@
       <c r="C52" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>15.807499999999999</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>47.775832999999999</v>
       </c>
-      <c r="K52" s="5">
-        <v>15.807499999999999</v>
-      </c>
-      <c r="L52" s="5">
-        <v>47.775832999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>273</v>
+      </c>
+      <c r="I52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2399,14 +2497,14 @@
       <c r="D53" t="s">
         <v>166</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>16.371866173866</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>48.198245099030899</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2417,7 +2515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2430,14 +2528,14 @@
       <c r="D55" t="s">
         <v>173</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>16.380340127652399</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>48.194248112951001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2448,23 +2546,22 @@
         <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
-      </c>
-      <c r="E56">
+        <v>288</v>
+      </c>
+      <c r="F56">
         <v>16.380099999999999</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>48.186576000000002</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="K56">
-        <v>16.380099999999999</v>
-      </c>
-      <c r="L56" s="5">
-        <v>48.186576000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2477,14 +2574,14 @@
       <c r="D57" t="s">
         <v>173</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>16.380340127652399</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>48.194248112951001</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2495,22 +2592,22 @@
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E58">
+        <v>235</v>
+      </c>
+      <c r="F58">
         <v>16.381667</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>48.195833</v>
       </c>
-      <c r="K58">
-        <v>16.381667</v>
-      </c>
-      <c r="L58" s="7">
-        <v>48.195833</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>273</v>
+      </c>
+      <c r="I58" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2520,20 +2617,17 @@
       <c r="C59" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="9">
+      <c r="F59" s="8">
         <v>16.370252099999998</v>
       </c>
-      <c r="F59" s="9">
+      <c r="G59" s="8">
         <v>48.205290789999999</v>
       </c>
-      <c r="I59" s="9">
-        <v>16.370252099999998</v>
-      </c>
-      <c r="J59" s="9">
-        <v>48.205290789999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2544,7 +2638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2555,7 +2649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2566,7 +2660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2577,22 +2671,22 @@
         <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>246</v>
-      </c>
-      <c r="E63">
+        <v>237</v>
+      </c>
+      <c r="F63">
         <v>16.373442871164102</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>48.203741336795801</v>
       </c>
-      <c r="M63">
+      <c r="J63">
         <v>16.373442871164102</v>
       </c>
-      <c r="N63">
+      <c r="K63">
         <v>48.203741336795801</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2603,7 +2697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2616,14 +2710,14 @@
       <c r="D65" t="s">
         <v>174</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>16.3756233564837</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>48.205289231707702</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2634,7 +2728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2647,14 +2741,14 @@
       <c r="D67" t="s">
         <v>175</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>16.3743618942548</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>48.204804726817997</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2667,20 +2761,17 @@
       <c r="D68" t="s">
         <v>176</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>16.374771532126001</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>48.205930413615398</v>
       </c>
-      <c r="G68">
-        <v>16.37273416</v>
-      </c>
-      <c r="H68">
-        <v>48.206980729999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2691,7 +2782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2704,20 +2795,17 @@
       <c r="D70" t="s">
         <v>177</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>16.392141649460701</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>48.193100955666402</v>
       </c>
-      <c r="G70">
-        <v>16.379694950000001</v>
-      </c>
-      <c r="H70">
-        <v>48.197128409999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2728,22 +2816,22 @@
         <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
-      </c>
-      <c r="E71">
+        <v>238</v>
+      </c>
+      <c r="F71">
         <v>16.377244142328301</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>48.206186329595198</v>
       </c>
-      <c r="M71">
+      <c r="J71">
         <v>16.377244142328301</v>
       </c>
-      <c r="N71">
+      <c r="K71">
         <v>48.206186329595198</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2754,23 +2842,22 @@
         <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>250</v>
-      </c>
-      <c r="E72">
+        <v>240</v>
+      </c>
+      <c r="F72">
         <v>16.377125955820802</v>
       </c>
-      <c r="F72" s="7">
+      <c r="G72" s="7">
         <v>48.207649976086799</v>
       </c>
-      <c r="L72" s="7"/>
-      <c r="M72">
+      <c r="J72">
         <v>16.377125955820802</v>
       </c>
-      <c r="N72" s="7">
+      <c r="K72" s="7">
         <v>48.207649976086799</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2783,20 +2870,17 @@
       <c r="D73" t="s">
         <v>178</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>16.376276583298299</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>48.208622776513202</v>
       </c>
-      <c r="G73">
-        <v>16.37858988</v>
-      </c>
-      <c r="H73">
-        <v>48.207738689999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2809,20 +2893,17 @@
       <c r="D74" t="s">
         <v>179</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>16.3763895227159</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>48.208341554480398</v>
       </c>
-      <c r="G74">
-        <v>16.375334110000001</v>
-      </c>
-      <c r="H74">
-        <v>48.208713260000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2833,22 +2914,22 @@
         <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
-      </c>
-      <c r="E75" s="7">
+        <v>239</v>
+      </c>
+      <c r="F75" s="7">
         <v>16.382332999999999</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>48.206693999999999</v>
       </c>
-      <c r="M75" s="7">
+      <c r="J75" s="7">
         <v>16.382332999999999</v>
       </c>
-      <c r="N75">
+      <c r="K75">
         <v>48.206693999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2859,7 +2940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2872,14 +2953,14 @@
       <c r="D77" t="s">
         <v>180</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>16.392549994163101</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>48.192425042515502</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2890,7 +2971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2901,7 +2982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2912,22 +2993,22 @@
         <v>70</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
-      </c>
-      <c r="E80" s="5">
+        <v>291</v>
+      </c>
+      <c r="F80" s="5">
         <v>16.382746000000001</v>
       </c>
-      <c r="F80" s="5">
+      <c r="G80" s="5">
         <v>48.203598</v>
       </c>
-      <c r="K80" s="5">
-        <v>16.382746000000001</v>
-      </c>
-      <c r="L80" s="5">
-        <v>48.203598</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>273</v>
+      </c>
+      <c r="I80" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2937,20 +3018,20 @@
       <c r="C81" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5">
         <v>16.349722</v>
       </c>
-      <c r="F81" s="5">
+      <c r="G81" s="5">
         <v>48.075277999999997</v>
       </c>
-      <c r="K81" s="5">
-        <v>16.349722</v>
-      </c>
-      <c r="L81" s="5">
-        <v>48.075277999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>273</v>
+      </c>
+      <c r="I81" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2960,14 +3041,20 @@
       <c r="C82" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="5">
+      <c r="F82" s="5">
         <v>16.349722</v>
       </c>
-      <c r="F82" s="5">
+      <c r="G82" s="5">
         <v>48.075277999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>273</v>
+      </c>
+      <c r="I82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2980,14 +3067,14 @@
       <c r="D83" t="s">
         <v>181</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>16.384374670156699</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>48.203154771736699</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2997,20 +3084,20 @@
       <c r="C84" t="s">
         <v>74</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5">
         <v>16.386500000000002</v>
       </c>
-      <c r="F84" s="5">
+      <c r="G84" s="5">
         <v>48.206400000000002</v>
       </c>
-      <c r="K84" s="5">
-        <v>16.386500000000002</v>
-      </c>
-      <c r="L84" s="5">
-        <v>48.206400000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>273</v>
+      </c>
+      <c r="I84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3021,7 +3108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3034,20 +3121,17 @@
       <c r="D86" t="s">
         <v>178</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>16.376276583298299</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>48.208622776513202</v>
       </c>
-      <c r="G86">
-        <v>16.37858988</v>
-      </c>
-      <c r="H86">
-        <v>48.207738689999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3058,22 +3142,19 @@
         <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
-      </c>
-      <c r="E87" s="9">
+        <v>241</v>
+      </c>
+      <c r="F87" s="8">
         <v>16.378865470000001</v>
       </c>
-      <c r="F87" s="9">
+      <c r="G87" s="8">
         <v>48.20813528</v>
       </c>
-      <c r="I87" s="9">
-        <v>16.378865470000001</v>
-      </c>
-      <c r="J87" s="9">
-        <v>48.20813528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3084,7 +3165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3094,14 +3175,14 @@
       <c r="C89" t="s">
         <v>78</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>16.379059896599799</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>48.210194767073098</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3112,7 +3193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3123,16 +3204,16 @@
         <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
-      </c>
-      <c r="E91">
+        <v>242</v>
+      </c>
+      <c r="F91">
         <v>16.379059896599799</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>48.210194767073098</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3143,7 +3224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3154,22 +3235,22 @@
         <v>81</v>
       </c>
       <c r="D93" t="s">
-        <v>253</v>
-      </c>
-      <c r="E93">
+        <v>243</v>
+      </c>
+      <c r="F93">
         <v>16.3867689100923</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>48.211022312628899</v>
       </c>
-      <c r="M93">
+      <c r="J93">
         <v>16.3867689100923</v>
       </c>
-      <c r="N93">
+      <c r="K93">
         <v>48.211022312628899</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3180,7 +3261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3193,14 +3274,14 @@
       <c r="D95" t="s">
         <v>182</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>16.395002029909101</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>48.211351233037902</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3213,14 +3294,14 @@
       <c r="D96" t="s">
         <v>163</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>16.3330615633398</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>48.276207520699103</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3233,14 +3314,14 @@
       <c r="D97" t="s">
         <v>183</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>16.414195198823599</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>48.205516257724597</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3253,20 +3334,20 @@
       <c r="D98" t="s">
         <v>184</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="s">
+        <v>259</v>
+      </c>
+      <c r="F98">
         <v>16.4239932517287</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>48.197665411529599</v>
       </c>
-      <c r="G98">
-        <v>16.378814160000001</v>
-      </c>
-      <c r="H98">
-        <v>48.212619369999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3276,20 +3357,23 @@
       <c r="C99" t="s">
         <v>85</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F99">
+      <c r="D99" t="s">
+        <v>295</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G99">
         <v>48.211944000000003</v>
       </c>
-      <c r="K99" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="L99">
-        <v>48.211944000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>273</v>
+      </c>
+      <c r="I99" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3299,20 +3383,17 @@
       <c r="C100" t="s">
         <v>86</v>
       </c>
-      <c r="E100" s="9">
+      <c r="F100" s="8">
         <v>16.37638772</v>
       </c>
-      <c r="F100" s="9">
+      <c r="G100" s="8">
         <v>48.211909830000003</v>
       </c>
-      <c r="I100" s="9">
-        <v>16.37638772</v>
-      </c>
-      <c r="J100" s="9">
-        <v>48.211909830000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3325,14 +3406,14 @@
       <c r="D101" t="s">
         <v>185</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>16.382223673443399</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>48.2220212119013</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3343,7 +3424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3354,7 +3435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3365,7 +3446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3378,20 +3459,20 @@
       <c r="D105" t="s">
         <v>84</v>
       </c>
-      <c r="E105" s="7">
+      <c r="F105" s="7">
         <v>16.385278</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>48.215277999999998</v>
       </c>
-      <c r="K105" s="7">
-        <v>16.385278</v>
-      </c>
-      <c r="L105">
-        <v>48.215277999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>273</v>
+      </c>
+      <c r="I105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3404,14 +3485,14 @@
       <c r="D106" t="s">
         <v>186</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>16.416258411226298</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>48.220308422232101</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3422,7 +3503,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3435,14 +3516,14 @@
       <c r="D108" t="s">
         <v>187</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>16.391311100668101</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>48.213174015253898</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3455,14 +3536,14 @@
       <c r="D109" t="s">
         <v>188</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>16.371945115880401</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>48.207757987582198</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3472,20 +3553,17 @@
       <c r="C110" t="s">
         <v>96</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>16.388422800000001</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>48.212240950000002</v>
       </c>
-      <c r="G110">
-        <v>16.388422800000001</v>
-      </c>
-      <c r="H110">
-        <v>48.212240950000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3498,14 +3576,14 @@
       <c r="D111" t="s">
         <v>189</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>16.406936998390801</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>48.194841093632</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3515,14 +3593,17 @@
       <c r="C112" t="s">
         <v>86</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" t="s">
+        <v>259</v>
+      </c>
+      <c r="F112" s="8">
         <v>16.37638772</v>
       </c>
-      <c r="F112" s="9">
+      <c r="G112" s="8">
         <v>48.211909830000003</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3535,14 +3616,17 @@
       <c r="D113" t="s">
         <v>190</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="s">
+        <v>259</v>
+      </c>
+      <c r="F113">
         <v>16.364155696833599</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>48.1845641139818</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3552,20 +3636,20 @@
       <c r="C114" t="s">
         <v>99</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" t="s">
+        <v>260</v>
+      </c>
+      <c r="F114" s="8">
         <v>16.378797120000002</v>
       </c>
-      <c r="F114" s="9">
+      <c r="G114" s="8">
         <v>48.210806050000002</v>
       </c>
-      <c r="I114" s="9">
-        <v>16.378797120000002</v>
-      </c>
-      <c r="J114" s="9">
-        <v>48.210806050000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3575,20 +3659,23 @@
       <c r="C115" t="s">
         <v>100</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115">
         <v>16.378362442085599</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>48.210804495465801</v>
       </c>
-      <c r="M115">
+      <c r="J115">
         <v>16.378362442085599</v>
       </c>
-      <c r="N115" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K115" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3599,22 +3686,25 @@
         <v>101</v>
       </c>
       <c r="D116" t="s">
-        <v>256</v>
-      </c>
-      <c r="E116">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116">
         <v>16.376388296599899</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>48.211849259689103</v>
       </c>
-      <c r="M116">
+      <c r="J116">
         <v>16.376388296599899</v>
       </c>
-      <c r="N116">
+      <c r="K116">
         <v>48.211849259689103</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3627,20 +3717,20 @@
       <c r="D117" t="s">
         <v>184</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="s">
+        <v>259</v>
+      </c>
+      <c r="F117">
         <v>16.4239932517287</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>48.197665411529599</v>
       </c>
-      <c r="G117">
-        <v>16.378814160000001</v>
-      </c>
-      <c r="H117">
-        <v>48.212619369999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3653,14 +3743,17 @@
       <c r="D118" t="s">
         <v>191</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="s">
+        <v>261</v>
+      </c>
+      <c r="F118">
         <v>16.376421892683702</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>48.213588305837199</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3671,10 +3764,25 @@
         <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="E119" t="s">
+        <v>261</v>
+      </c>
+      <c r="F119">
+        <v>16.375</v>
+      </c>
+      <c r="G119" s="7">
+        <v>48.214167000000003</v>
+      </c>
+      <c r="H119" t="s">
+        <v>273</v>
+      </c>
+      <c r="I119" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3687,14 +3795,17 @@
       <c r="D120" t="s">
         <v>192</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="s">
+        <v>261</v>
+      </c>
+      <c r="F120">
         <v>16.374937181267502</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>48.2136340235486</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3707,14 +3818,17 @@
       <c r="D121" t="s">
         <v>193</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="s">
+        <v>258</v>
+      </c>
+      <c r="F121">
         <v>16.376415950127999</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>48.210714885479099</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3727,14 +3841,14 @@
       <c r="D122" t="s">
         <v>194</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>16.374430808795299</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>48.212285427789197</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3745,7 +3859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3756,22 +3870,25 @@
         <v>107</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
-      </c>
-      <c r="E124">
+        <v>247</v>
+      </c>
+      <c r="E124" t="s">
+        <v>261</v>
+      </c>
+      <c r="F124">
         <v>16.373987083107401</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>48.212963261661997</v>
       </c>
-      <c r="M124">
+      <c r="J124">
         <v>16.373987083107401</v>
       </c>
-      <c r="N124">
+      <c r="K124">
         <v>48.212963261661997</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3784,14 +3901,17 @@
       <c r="D125" t="s">
         <v>195</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="s">
+        <v>260</v>
+      </c>
+      <c r="F125">
         <v>16.372856189480402</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>48.212974028083302</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3802,16 +3922,19 @@
         <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>259</v>
-      </c>
-      <c r="E126">
+        <v>248</v>
+      </c>
+      <c r="E126" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126">
         <v>16.371653710092499</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>48.2134726054448</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3822,16 +3945,19 @@
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>227</v>
-      </c>
-      <c r="E127" s="5">
+        <v>222</v>
+      </c>
+      <c r="E127" t="s">
+        <v>258</v>
+      </c>
+      <c r="F127" s="5">
         <v>16.361861000000001</v>
       </c>
-      <c r="F127" s="5">
+      <c r="G127" s="5">
         <v>48.200944</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3842,7 +3968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3853,22 +3979,25 @@
         <v>111</v>
       </c>
       <c r="D129" t="s">
-        <v>260</v>
-      </c>
-      <c r="E129" s="5">
+        <v>300</v>
+      </c>
+      <c r="E129" t="s">
+        <v>259</v>
+      </c>
+      <c r="F129" s="5">
         <v>16.363333000000001</v>
       </c>
-      <c r="F129" s="5">
+      <c r="G129" s="5">
         <v>48.214722000000002</v>
       </c>
-      <c r="K129" s="5">
-        <v>16.363333000000001</v>
-      </c>
-      <c r="L129" s="5">
-        <v>48.214722000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>273</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3879,22 +4008,19 @@
         <v>112</v>
       </c>
       <c r="D130" t="s">
-        <v>261</v>
-      </c>
-      <c r="E130" s="7">
+        <v>249</v>
+      </c>
+      <c r="E130" t="s">
+        <v>259</v>
+      </c>
+      <c r="F130" s="7">
         <v>16.377647</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>48.208936000000001</v>
       </c>
-      <c r="K130" s="7">
-        <v>16.377647</v>
-      </c>
-      <c r="L130">
-        <v>48.208936000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3904,8 +4030,11 @@
       <c r="C131" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3916,7 +4045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3929,14 +4058,17 @@
       <c r="D133" t="s">
         <v>196</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="s">
+        <v>261</v>
+      </c>
+      <c r="F133">
         <v>16.3703252108137</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>48.218798001733703</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3949,20 +4081,20 @@
       <c r="D134" t="s">
         <v>184</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="s">
+        <v>259</v>
+      </c>
+      <c r="F134">
         <v>16.4239932517287</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>48.197665411529599</v>
       </c>
-      <c r="G134">
-        <v>16.378814160000001</v>
-      </c>
-      <c r="H134">
-        <v>48.212619369999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3975,14 +4107,17 @@
       <c r="D135" t="s">
         <v>197</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="s">
+        <v>261</v>
+      </c>
+      <c r="F135">
         <v>16.375799193189199</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>48.225635965770003</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3995,14 +4130,17 @@
       <c r="D136" t="s">
         <v>198</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136">
         <v>16.375805904211902</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>48.238462671779402</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4012,20 +4150,23 @@
       <c r="C137" t="s">
         <v>117</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" t="s">
+        <v>261</v>
+      </c>
+      <c r="F137" s="7">
         <v>16.363889</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>48.221666999999997</v>
       </c>
-      <c r="K137" s="7">
-        <v>16.363889</v>
-      </c>
-      <c r="L137">
-        <v>48.221666999999997</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>273</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4035,20 +4176,23 @@
       <c r="C138" t="s">
         <v>118</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" s="7">
         <v>16.357778</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>48.228056000000002</v>
       </c>
-      <c r="K138" s="7">
-        <v>16.357778</v>
-      </c>
-      <c r="L138">
-        <v>48.228056000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>273</v>
+      </c>
+      <c r="I138" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4061,14 +4205,17 @@
       <c r="D139" t="s">
         <v>199</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="s">
+        <v>261</v>
+      </c>
+      <c r="F139">
         <v>16.363835558603199</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>48.220433225640001</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4081,14 +4228,17 @@
       <c r="D140" t="s">
         <v>200</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="s">
+        <v>260</v>
+      </c>
+      <c r="F140">
         <v>16.3331726214989</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>48.260965418235898</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4101,14 +4251,17 @@
       <c r="D141" t="s">
         <v>163</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="s">
+        <v>260</v>
+      </c>
+      <c r="F141">
         <v>16.3330615633398</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>48.276207520699103</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4121,14 +4274,17 @@
       <c r="D142" t="s">
         <v>201</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="s">
+        <v>260</v>
+      </c>
+      <c r="F142">
         <v>16.346597409547702</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>48.2790007290956</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4139,22 +4295,25 @@
         <v>122</v>
       </c>
       <c r="D143" t="s">
-        <v>262</v>
-      </c>
-      <c r="E143">
+        <v>250</v>
+      </c>
+      <c r="E143" t="s">
+        <v>258</v>
+      </c>
+      <c r="F143">
         <v>16.368181557671601</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>48.210797467216402</v>
       </c>
-      <c r="M143">
+      <c r="J143">
         <v>16.368181557671601</v>
       </c>
-      <c r="N143">
+      <c r="K143">
         <v>48.210797467216402</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4167,14 +4326,17 @@
       <c r="D144" t="s">
         <v>202</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="s">
+        <v>260</v>
+      </c>
+      <c r="F144">
         <v>16.3330615633398</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>48.276207520699103</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4184,20 +4346,23 @@
       <c r="C145" t="s">
         <v>124</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="s">
+        <v>260</v>
+      </c>
+      <c r="F145">
         <v>15.249119424881</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>47.938044769567597</v>
       </c>
-      <c r="M145">
+      <c r="J145">
         <v>15.249119424881</v>
       </c>
-      <c r="N145">
+      <c r="K145">
         <v>47.938044769567597</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4208,7 +4373,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4218,20 +4383,20 @@
       <c r="C147" t="s">
         <v>126</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="s">
+        <v>261</v>
+      </c>
+      <c r="F147">
         <v>16.36726977</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>48.213743540000003</v>
       </c>
-      <c r="G147">
-        <v>16.36726977</v>
-      </c>
-      <c r="H147">
-        <v>48.213743540000003</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4242,7 +4407,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4255,20 +4420,20 @@
       <c r="D149" t="s">
         <v>203</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="s">
+        <v>259</v>
+      </c>
+      <c r="F149">
         <v>16.365252690635799</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>48.212237583665697</v>
       </c>
-      <c r="G149">
-        <v>16.363595230000001</v>
-      </c>
-      <c r="H149">
-        <v>48.212821400000003</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4281,14 +4446,17 @@
       <c r="D150" t="s">
         <v>204</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="s">
+        <v>258</v>
+      </c>
+      <c r="F150">
         <v>16.363197754961</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>48.213248674922298</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4301,20 +4469,20 @@
       <c r="D151" t="s">
         <v>205</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="s">
+        <v>261</v>
+      </c>
+      <c r="F151">
         <v>16.3647892781553</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>48.211577277908802</v>
       </c>
-      <c r="G151">
-        <v>16.366077430000001</v>
-      </c>
-      <c r="H151">
-        <v>48.211330599999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4327,20 +4495,20 @@
       <c r="D152" t="s">
         <v>206</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="s">
+        <v>261</v>
+      </c>
+      <c r="F152">
         <v>16.365606825194199</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>48.209840541072303</v>
       </c>
-      <c r="G152">
-        <v>16.36549175</v>
-      </c>
-      <c r="H152">
-        <v>48.210008709999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4350,20 +4518,20 @@
       <c r="C153" t="s">
         <v>132</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="s">
+        <v>261</v>
+      </c>
+      <c r="F153">
         <v>16.358228749999999</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>48.218601169999999</v>
       </c>
-      <c r="G153">
-        <v>16.358228749999999</v>
-      </c>
-      <c r="H153">
-        <v>48.218601169999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4376,14 +4544,17 @@
       <c r="D154" t="s">
         <v>207</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="s">
+        <v>261</v>
+      </c>
+      <c r="F154">
         <v>16.358331544138501</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>48.217020890050698</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4396,14 +4567,17 @@
       <c r="D155" t="s">
         <v>200</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="s">
+        <v>260</v>
+      </c>
+      <c r="F155">
         <v>16.3331726214989</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>48.260965418235898</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4413,8 +4587,11 @@
       <c r="C156" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4425,22 +4602,23 @@
         <v>135</v>
       </c>
       <c r="D157" t="s">
-        <v>263</v>
-      </c>
-      <c r="E157">
+        <v>251</v>
+      </c>
+      <c r="E157" t="s">
+        <v>259</v>
+      </c>
+      <c r="F157">
         <v>16.366944</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>48.209721999999999</v>
       </c>
-      <c r="G157" s="7">
-        <v>16.370377999999999</v>
-      </c>
-      <c r="H157">
-        <v>48.204402999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H157" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4450,8 +4628,11 @@
       <c r="C158" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4464,20 +4645,20 @@
       <c r="D159" t="s">
         <v>208</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="s">
+        <v>259</v>
+      </c>
+      <c r="F159">
         <v>16.416390769474798</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>48.2627879575126</v>
       </c>
-      <c r="G159">
-        <v>16.35517063</v>
-      </c>
-      <c r="H159">
-        <v>48.214843940000002</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4487,8 +4668,11 @@
       <c r="C160" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4498,8 +4682,11 @@
       <c r="C161" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4509,8 +4696,11 @@
       <c r="C162" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4523,14 +4713,17 @@
       <c r="D163" t="s">
         <v>209</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="s">
+        <v>261</v>
+      </c>
+      <c r="F163">
         <v>16.362053242510498</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>48.212394037049201</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4543,14 +4736,17 @@
       <c r="D164" t="s">
         <v>210</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="s">
+        <v>261</v>
+      </c>
+      <c r="F164">
         <v>16.3627143666587</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>48.211441045644698</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4561,22 +4757,25 @@
         <v>142</v>
       </c>
       <c r="D165" t="s">
-        <v>264</v>
-      </c>
-      <c r="E165" s="5">
+        <v>252</v>
+      </c>
+      <c r="E165" t="s">
+        <v>260</v>
+      </c>
+      <c r="F165" s="5">
         <v>16.361944000000001</v>
       </c>
-      <c r="F165" s="5">
+      <c r="G165" s="5">
         <v>48.211666999999998</v>
       </c>
-      <c r="K165" s="5">
-        <v>16.361944000000001</v>
-      </c>
-      <c r="L165" s="5">
-        <v>48.211666999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>273</v>
+      </c>
+      <c r="I165" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4589,14 +4788,17 @@
       <c r="D166" t="s">
         <v>211</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="s">
+        <v>259</v>
+      </c>
+      <c r="F166">
         <v>16.362994498060399</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>48.211529113422202</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4609,14 +4811,17 @@
       <c r="D167" t="s">
         <v>212</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="s">
+        <v>261</v>
+      </c>
+      <c r="F167">
         <v>16.3480816321009</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>48.210309378949098</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4627,16 +4832,19 @@
         <v>145</v>
       </c>
       <c r="D168" t="s">
-        <v>226</v>
-      </c>
-      <c r="E168">
+        <v>221</v>
+      </c>
+      <c r="E168" t="s">
+        <v>260</v>
+      </c>
+      <c r="F168">
         <v>16.356328999999999</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>48.210980999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4649,14 +4857,17 @@
       <c r="D169" t="s">
         <v>213</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="s">
+        <v>259</v>
+      </c>
+      <c r="F169">
         <v>16.260842566541601</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>48.150495348646999</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4666,20 +4877,23 @@
       <c r="C170" t="s">
         <v>147</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" t="s">
+        <v>260</v>
+      </c>
+      <c r="F170" s="7">
         <v>16.351111</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>48.209583000000002</v>
       </c>
-      <c r="K170" s="7">
-        <v>16.351111</v>
-      </c>
-      <c r="L170">
-        <v>48.209583000000002</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>273</v>
+      </c>
+      <c r="I170" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4689,8 +4903,11 @@
       <c r="C171" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4703,14 +4920,17 @@
       <c r="D172" t="s">
         <v>214</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="s">
+        <v>261</v>
+      </c>
+      <c r="F172">
         <v>16.344858318868098</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>48.2072450727103</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4723,14 +4943,17 @@
       <c r="D173" t="s">
         <v>215</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="s">
+        <v>260</v>
+      </c>
+      <c r="F173">
         <v>16.362264167569698</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>48.2097230034041</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4740,20 +4963,20 @@
       <c r="C174" t="s">
         <v>151</v>
       </c>
-      <c r="E174" s="9">
+      <c r="E174" t="s">
+        <v>259</v>
+      </c>
+      <c r="F174" s="8">
         <v>16.366648059999999</v>
       </c>
-      <c r="F174" s="9">
+      <c r="G174" s="8">
         <v>48.207747529999999</v>
       </c>
-      <c r="I174" s="9">
-        <v>16.366648059999999</v>
-      </c>
-      <c r="J174" s="9">
-        <v>48.207747529999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4764,22 +4987,25 @@
         <v>152</v>
       </c>
       <c r="D175" t="s">
-        <v>265</v>
-      </c>
-      <c r="E175">
+        <v>253</v>
+      </c>
+      <c r="E175" t="s">
+        <v>260</v>
+      </c>
+      <c r="F175">
         <v>16.3609691632441</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>48.2069211592244</v>
       </c>
-      <c r="M175">
+      <c r="J175">
         <v>16.3609691632441</v>
       </c>
-      <c r="N175">
+      <c r="K175">
         <v>48.2069211592244</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4792,14 +5018,17 @@
       <c r="D176" t="s">
         <v>167</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="s">
+        <v>258</v>
+      </c>
+      <c r="F176">
         <v>16.361755237940699</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>48.207964058470097</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4812,14 +5041,17 @@
       <c r="D177" t="s">
         <v>216</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="s">
+        <v>258</v>
+      </c>
+      <c r="F177">
         <v>16.362684356734199</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>48.210653381081002</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4830,22 +5062,25 @@
         <v>154</v>
       </c>
       <c r="D178" t="s">
-        <v>266</v>
-      </c>
-      <c r="E178">
+        <v>254</v>
+      </c>
+      <c r="E178" t="s">
+        <v>260</v>
+      </c>
+      <c r="F178">
         <v>16.3626965846566</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>48.210128918306097</v>
       </c>
-      <c r="M178">
+      <c r="J178">
         <v>16.3626965846566</v>
       </c>
-      <c r="N178">
+      <c r="K178">
         <v>48.210128918306097</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4858,14 +5093,17 @@
       <c r="D179" t="s">
         <v>217</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="s">
+        <v>260</v>
+      </c>
+      <c r="F179">
         <v>16.3637725296221</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>48.2083797886037</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4876,22 +5114,25 @@
         <v>156</v>
       </c>
       <c r="D180" t="s">
-        <v>268</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F180" s="11">
+        <v>256</v>
+      </c>
+      <c r="E180" t="s">
+        <v>261</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G180" s="10">
         <v>48.208100000000002</v>
       </c>
-      <c r="K180" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="L180">
-        <v>48.208100000000002</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>273</v>
+      </c>
+      <c r="I180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4902,22 +5143,25 @@
         <v>157</v>
       </c>
       <c r="D181" t="s">
-        <v>230</v>
-      </c>
-      <c r="E181" s="7">
+        <v>224</v>
+      </c>
+      <c r="E181" t="s">
+        <v>260</v>
+      </c>
+      <c r="F181" s="7">
         <v>16.364080999999999</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>48.208371999999997</v>
       </c>
-      <c r="K181" s="7">
-        <v>16.364080999999999</v>
-      </c>
-      <c r="L181">
-        <v>48.208371999999997</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>273</v>
+      </c>
+      <c r="I181" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4928,7 +5172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4941,14 +5185,14 @@
       <c r="D183" t="s">
         <v>167</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>16.361755237940699</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>48.207964058470097</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4959,7 +5203,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4972,14 +5216,14 @@
       <c r="D185" t="s">
         <v>167</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>16.361755237940699</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>48.207964058470097</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4992,14 +5236,14 @@
       <c r="D186" t="s">
         <v>167</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>16.361686238078001</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>48.208383057004497</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5010,7 +5254,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5023,14 +5267,14 @@
       <c r="D188" t="s">
         <v>218</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>16.365843215387599</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>48.206876060974402</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5044,6 +5288,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" tooltip="Museumstraße (Wien)" display="https://de.wikipedia.org/wiki/Museumstra%C3%9Fe_(Wien)" xr:uid="{278AF2AA-4D34-4941-9B6F-395AE74BB16D}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{67E5440D-0644-4FDA-8419-0A7912B5D5F2}"/>
+    <hyperlink ref="I13" r:id="rId3" xr:uid="{A850B9E1-F984-4328-9445-CD3C8ACBC0CC}"/>
+    <hyperlink ref="I56" r:id="rId4" xr:uid="{44C3D5A0-DEB8-4C4B-88B8-2A095017A5B4}"/>
+    <hyperlink ref="I129" r:id="rId5" xr:uid="{F007C538-A02F-4AA1-8993-A3BA5343B979}"/>
+    <hyperlink ref="I137" r:id="rId6" xr:uid="{C4095551-9425-4E76-95CF-7581F5588132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
